--- a/Networks/Parte1-FeedForward.xlsx
+++ b/Networks/Parte1-FeedForward.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9637600819034485</v>
+        <v>-0.2885942898507772</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8312694579588333</v>
+        <v>-0.2009415993543918</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08969117540009508</v>
+        <v>-0.438505714209295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9505511454989388</v>
+        <v>0.7112978535001431</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1911993114517343</v>
+        <v>-0.2242149670643601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6441213572436573</v>
+        <v>-0.2446713201438659</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6461359922733286</v>
+        <v>-0.205344946110354</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7209504233263874</v>
+        <v>-0.04725213062559419</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1483843927820294</v>
+        <v>-0.6670504666759784</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8843721535512004</v>
+        <v>0.2135766496477616</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2214806095736093</v>
+        <v>-0.974891294275763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8289209232163632</v>
+        <v>0.431064522041541</v>
       </c>
     </row>
   </sheetData>
